--- a/data/data_koae/excel/KOAE_2011.xlsx
+++ b/data/data_koae/excel/KOAE_2011.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="125">
   <si>
     <t>id site</t>
   </si>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1893,13 +1893,13 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18">
-        <v>-5469170.2422000002</v>
+        <v>-5469170.2209999999</v>
       </c>
       <c r="O18">
-        <v>-2518419.8958999999</v>
+        <v>-2518420.0003</v>
       </c>
       <c r="P18">
-        <v>2099832.0033</v>
+        <v>2099831.9350000001</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -3358,13 +3358,13 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39">
-        <v>-5468987.8657</v>
+        <v>-5468987.8446000004</v>
       </c>
       <c r="O39">
-        <v>-2517792.6792000001</v>
+        <v>-2517792.7831000001</v>
       </c>
       <c r="P39">
-        <v>2101225.9775999999</v>
+        <v>2101225.9095999999</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -3754,13 +3754,13 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45">
-        <v>-5468888.6527000004</v>
+        <v>-5468888.6254000003</v>
       </c>
       <c r="O45">
-        <v>-2517620.7716999999</v>
+        <v>-2517620.906</v>
       </c>
       <c r="P45">
-        <v>2101677.0408999999</v>
+        <v>2101676.9530000002</v>
       </c>
     </row>
     <row r="46" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -4150,13 +4150,13 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51">
-        <v>-5469583.3630999997</v>
+        <v>-5469583.3786000004</v>
       </c>
       <c r="O51">
-        <v>-2518210.5628</v>
+        <v>-2518210.4865000001</v>
       </c>
       <c r="P51">
-        <v>2098964.0381999998</v>
+        <v>2098964.0882000001</v>
       </c>
     </row>
     <row r="52" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -4323,10 +4323,17 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:L11"/>
+      <selection activeCell="L1" sqref="L1:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
@@ -4522,38 +4529,38 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" t="s">
-        <v>124</v>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>-5469178.3396999994</v>
+      </c>
+      <c r="F6">
+        <v>-2518469.4693</v>
+      </c>
+      <c r="G6">
+        <v>2099754.5900999997</v>
+      </c>
+      <c r="H6">
+        <v>19.3450527491241</v>
+      </c>
+      <c r="I6">
+        <v>-155.27468290427299</v>
+      </c>
+      <c r="J6">
+        <v>991.39700641855597</v>
+      </c>
+      <c r="K6">
+        <v>261038.337164959</v>
+      </c>
+      <c r="L6">
+        <v>2140579.3798380601</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -4570,28 +4577,28 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>-5469170.2422000002</v>
+        <v>-5469170.2209999999</v>
       </c>
       <c r="F7">
-        <v>-2518419.8958999999</v>
+        <v>-2518420.0003</v>
       </c>
       <c r="G7">
-        <v>2099832.0033</v>
+        <v>2099831.9350000001</v>
       </c>
       <c r="H7">
-        <v>19.345796537315401</v>
+        <v>19.345795884716502</v>
       </c>
       <c r="I7">
-        <v>-155.275079151402</v>
+        <v>-155.27507816890599</v>
       </c>
       <c r="J7">
-        <v>990.53676750604097</v>
+        <v>990.53728656377598</v>
       </c>
       <c r="K7">
-        <v>260997.776940315</v>
+        <v>260997.87924544001</v>
       </c>
       <c r="L7">
-        <v>2140662.2804676602</v>
+        <v>2140662.20685262</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -4712,38 +4719,38 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="s">
-        <v>124</v>
+      <c r="B11">
+        <v>2011</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>-5469114.0473999996</v>
+      </c>
+      <c r="F11">
+        <v>-2518271.0564000001</v>
+      </c>
+      <c r="G11">
+        <v>2100233.5436999998</v>
+      </c>
+      <c r="H11">
+        <v>19.349557580654398</v>
+      </c>
+      <c r="I11">
+        <v>-155.27614199568001</v>
+      </c>
+      <c r="J11">
+        <v>1016.66899987217</v>
+      </c>
+      <c r="K11">
+        <v>260891.56019215801</v>
+      </c>
+      <c r="L11">
+        <v>2141080.1759356</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -4902,38 +4909,38 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" t="s">
-        <v>124</v>
+      <c r="B16">
+        <v>2011</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>-5469110.4439108111</v>
+      </c>
+      <c r="F16">
+        <v>-2518104.5281216218</v>
+      </c>
+      <c r="G16">
+        <v>2100461.3299753424</v>
+      </c>
+      <c r="H16">
+        <v>19.351717017392399</v>
+      </c>
+      <c r="I16">
+        <v>-155.277567081825</v>
+      </c>
+      <c r="J16">
+        <v>1023.34448294248</v>
+      </c>
+      <c r="K16">
+        <v>260744.94401514399</v>
+      </c>
+      <c r="L16">
+        <v>2141321.2433390799</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -5292,28 +5299,28 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>-5468987.8657</v>
+        <v>-5468987.8446000004</v>
       </c>
       <c r="F26">
-        <v>-2517792.6792000001</v>
+        <v>-2517792.7831000001</v>
       </c>
       <c r="G26">
-        <v>2101225.9775999999</v>
+        <v>2101225.9095999999</v>
       </c>
       <c r="H26">
-        <v>19.358956876452002</v>
+        <v>19.358956223884299</v>
       </c>
       <c r="I26">
-        <v>-155.279774906613</v>
+        <v>-155.27977392402801</v>
       </c>
       <c r="J26">
-        <v>1048.6716231815501</v>
+        <v>1048.6721176598201</v>
       </c>
       <c r="K26">
-        <v>260523.49579093399</v>
+        <v>260523.59809480899</v>
       </c>
       <c r="L26">
-        <v>2142125.9065539199</v>
+        <v>2142125.83293834</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -5520,28 +5527,28 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>-5468888.6527000004</v>
+        <v>-5468888.6254000003</v>
       </c>
       <c r="F32">
-        <v>-2517620.7716999999</v>
+        <v>-2517620.906</v>
       </c>
       <c r="G32">
-        <v>2101677.0408999999</v>
+        <v>2101676.9530000002</v>
       </c>
       <c r="H32">
-        <v>19.363285696223599</v>
+        <v>19.363284854708301</v>
       </c>
       <c r="I32">
-        <v>-155.280866126614</v>
+        <v>-155.280864856801</v>
       </c>
       <c r="J32">
-        <v>1045.3609864693101</v>
+        <v>1045.3606790946801</v>
       </c>
       <c r="K32">
-        <v>260415.150987906</v>
+        <v>260415.28319543801</v>
       </c>
       <c r="L32">
-        <v>2142606.7116663498</v>
+        <v>2142606.6167306998</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -6204,28 +6211,28 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>-5469583.3630999997</v>
+        <v>-5469583.3786000004</v>
       </c>
       <c r="F50">
-        <v>-2518210.5628</v>
+        <v>-2518210.4865000001</v>
       </c>
       <c r="G50">
-        <v>2098964.0381999998</v>
+        <v>2098964.0882000001</v>
       </c>
       <c r="H50">
-        <v>19.337538589256202</v>
+        <v>19.337539066988999</v>
       </c>
       <c r="I50">
-        <v>-155.27853259115699</v>
+        <v>-155.27853331171301</v>
       </c>
       <c r="J50">
-        <v>974.53183093387599</v>
+        <v>974.53211060725198</v>
       </c>
       <c r="K50">
-        <v>260622.78586430999</v>
+        <v>260622.71082998</v>
       </c>
       <c r="L50">
-        <v>2139752.7349447398</v>
+        <v>2139752.7888374198</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -6838,6 +6845,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
